--- a/outputs/runs/2/simulacion_metricas.xlsx
+++ b/outputs/runs/2/simulacion_metricas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,26 +464,6 @@
           <t>se_shannon</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>num_decoded_bits</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>goodput</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>bler</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>mcs_index</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -493,28 +473,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E2" t="n">
-        <v>0.740234375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.967226028442383</v>
-      </c>
-      <c r="G2" t="n">
-        <v>424</v>
-      </c>
-      <c r="H2" t="n">
-        <v>424</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +493,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>-50.88537001646054</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.740234375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001441974192857742</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+        <v>9.967226028442383</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +516,13 @@
         <v>-30</v>
       </c>
       <c r="D4" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,25 +536,13 @@
         <v>-30</v>
       </c>
       <c r="D5" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -624,25 +556,13 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E6" t="n">
         <v>0.740234375</v>
       </c>
       <c r="F6" t="n">
         <v>9.967226028442383</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4120</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4120</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +576,13 @@
         <v>-30</v>
       </c>
       <c r="D7" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -685,28 +593,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.740234375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001441974192857742</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
+        <v>9.967226028442383</v>
       </c>
     </row>
     <row r="9">
@@ -717,28 +613,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D9" t="n">
-        <v>-50.88537048941744</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.740234375</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9.967226028442383</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4120</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4120</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +633,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D10" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E10" t="n">
-        <v>0.740234375</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.967226028442383</v>
-      </c>
-      <c r="G10" t="n">
-        <v>400</v>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="11">
@@ -784,25 +656,13 @@
         <v>-30</v>
       </c>
       <c r="D11" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -816,25 +676,13 @@
         <v>-30</v>
       </c>
       <c r="D12" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -848,25 +696,13 @@
         <v>-30</v>
       </c>
       <c r="D13" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -880,25 +716,13 @@
         <v>-30</v>
       </c>
       <c r="D14" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -912,25 +736,13 @@
         <v>-30</v>
       </c>
       <c r="D15" t="n">
-        <v>-50.88537096237437</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -941,28 +753,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.740234375</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001441974192857742</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
+        <v>9.967226028442383</v>
       </c>
     </row>
     <row r="17">
@@ -973,28 +773,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>11.3879451751709</v>
+        <v>-30</v>
       </c>
       <c r="D17" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E17" t="n">
-        <v>0.740234375</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.884166240692139</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4504</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4504</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="18">
@@ -1008,25 +796,13 @@
         <v>-30</v>
       </c>
       <c r="D18" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1040,25 +816,13 @@
         <v>-30</v>
       </c>
       <c r="D19" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1072,25 +836,13 @@
         <v>-30</v>
       </c>
       <c r="D20" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1104,25 +856,13 @@
         <v>-30</v>
       </c>
       <c r="D21" t="n">
-        <v>-50.80455712820427</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1136,25 +876,13 @@
         <v>-30</v>
       </c>
       <c r="D22" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1165,28 +893,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.740234375</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001441974192857742</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
+        <v>9.967226028442383</v>
       </c>
     </row>
     <row r="24">
@@ -1200,25 +916,13 @@
         <v>-30</v>
       </c>
       <c r="D24" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1229,28 +933,16 @@
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>4.27807092666626</v>
+        <v>-30</v>
       </c>
       <c r="D25" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E25" t="n">
-        <v>0.740234375</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.878913044929504</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4504</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4504</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="26">
@@ -1261,28 +953,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>25.01146697998047</v>
+        <v>-30</v>
       </c>
       <c r="D26" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.313172340393066</v>
-      </c>
-      <c r="G26" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H26" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="27">
@@ -1296,25 +976,13 @@
         <v>-30</v>
       </c>
       <c r="D27" t="n">
-        <v>-50.80455805667941</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1328,25 +996,13 @@
         <v>-30</v>
       </c>
       <c r="D28" t="n">
-        <v>-52.90025899461995</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1360,25 +1016,13 @@
         <v>-30</v>
       </c>
       <c r="D29" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1392,25 +1036,13 @@
         <v>-30</v>
       </c>
       <c r="D30" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1424,25 +1056,13 @@
         <v>-30</v>
       </c>
       <c r="D31" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1456,25 +1076,13 @@
         <v>-30</v>
       </c>
       <c r="D32" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1488,25 +1096,13 @@
         <v>-30</v>
       </c>
       <c r="D33" t="n">
-        <v>-50.88537096237437</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1520,25 +1116,13 @@
         <v>-30</v>
       </c>
       <c r="D34" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1552,25 +1136,13 @@
         <v>-30</v>
       </c>
       <c r="D35" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1581,28 +1153,16 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>26.28849601745605</v>
+        <v>-30</v>
       </c>
       <c r="D36" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E36" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>8.736236572265625</v>
-      </c>
-      <c r="G36" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H36" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="37">
@@ -1616,25 +1176,13 @@
         <v>-30</v>
       </c>
       <c r="D37" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1648,25 +1196,13 @@
         <v>-30</v>
       </c>
       <c r="D38" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1680,25 +1216,13 @@
         <v>-30</v>
       </c>
       <c r="D39" t="n">
-        <v>-50.88537048941744</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1709,28 +1233,16 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>17.63616752624512</v>
+        <v>-30</v>
       </c>
       <c r="D40" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>5.883259296417236</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="41">
@@ -1744,25 +1256,13 @@
         <v>-30</v>
       </c>
       <c r="D41" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1776,25 +1276,13 @@
         <v>-30</v>
       </c>
       <c r="D42" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1808,25 +1296,13 @@
         <v>-30</v>
       </c>
       <c r="D43" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1840,25 +1316,13 @@
         <v>-30</v>
       </c>
       <c r="D44" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1872,25 +1336,13 @@
         <v>-30</v>
       </c>
       <c r="D45" t="n">
-        <v>-50.80455712820427</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1901,28 +1353,16 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>16.91576766967773</v>
+        <v>-30</v>
       </c>
       <c r="D46" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E46" t="n">
-        <v>4.5234375</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.648351669311523</v>
-      </c>
-      <c r="G46" t="n">
-        <v>27776</v>
-      </c>
-      <c r="H46" t="n">
-        <v>27776</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>24</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="47">
@@ -1936,25 +1376,13 @@
         <v>-30</v>
       </c>
       <c r="D47" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1968,25 +1396,13 @@
         <v>-30</v>
       </c>
       <c r="D48" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2000,25 +1416,13 @@
         <v>-30</v>
       </c>
       <c r="D49" t="n">
-        <v>-71.79234358493973</v>
+        <v>-200</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2032,25 +1436,13 @@
         <v>-30</v>
       </c>
       <c r="D50" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2061,28 +1453,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>23.32428550720215</v>
+        <v>-30</v>
       </c>
       <c r="D51" t="n">
-        <v>-50.88537048941744</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E51" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>7.754854679107666</v>
-      </c>
-      <c r="G51" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H51" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="52">
@@ -2096,25 +1476,13 @@
         <v>-30</v>
       </c>
       <c r="D52" t="n">
-        <v>-52.90025410558053</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2128,25 +1496,13 @@
         <v>-30</v>
       </c>
       <c r="D53" t="n">
-        <v>-61.27943177288763</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2160,25 +1516,13 @@
         <v>-30</v>
       </c>
       <c r="D54" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2192,25 +1536,13 @@
         <v>-30</v>
       </c>
       <c r="D55" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2224,25 +1556,13 @@
         <v>-30</v>
       </c>
       <c r="D56" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2256,25 +1576,13 @@
         <v>-30</v>
       </c>
       <c r="D57" t="n">
-        <v>-50.88537001646054</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2288,25 +1596,13 @@
         <v>-30</v>
       </c>
       <c r="D58" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2317,28 +1613,16 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>12.36308097839355</v>
+        <v>-30</v>
       </c>
       <c r="D59" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E59" t="n">
-        <v>3.029296875</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>4.188313961029053</v>
-      </c>
-      <c r="G59" t="n">
-        <v>18528</v>
-      </c>
-      <c r="H59" t="n">
-        <v>18528</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>19</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="60">
@@ -2352,25 +1636,13 @@
         <v>-30</v>
       </c>
       <c r="D60" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2384,25 +1656,13 @@
         <v>-30</v>
       </c>
       <c r="D61" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2416,25 +1676,13 @@
         <v>-30</v>
       </c>
       <c r="D62" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2448,25 +1696,13 @@
         <v>-30</v>
       </c>
       <c r="D63" t="n">
-        <v>-50.80455712820427</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2480,25 +1716,13 @@
         <v>-30</v>
       </c>
       <c r="D64" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2512,25 +1736,13 @@
         <v>-30</v>
       </c>
       <c r="D65" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2544,25 +1756,13 @@
         <v>-30</v>
       </c>
       <c r="D66" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2573,28 +1773,16 @@
         <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>5.237679958343506</v>
+        <v>-30</v>
       </c>
       <c r="D67" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E67" t="n">
-        <v>1.4765625</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2.117750406265259</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9040</v>
-      </c>
-      <c r="H67" t="n">
-        <v>9040</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="68">
@@ -2605,28 +1793,16 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>25.01146697998047</v>
+        <v>-30</v>
       </c>
       <c r="D68" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E68" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>8.313172340393066</v>
-      </c>
-      <c r="G68" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H68" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="69">
@@ -2640,25 +1816,13 @@
         <v>-30</v>
       </c>
       <c r="D69" t="n">
-        <v>-50.88537096237437</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2672,25 +1836,13 @@
         <v>-30</v>
       </c>
       <c r="D70" t="n">
-        <v>-52.90025410558053</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2704,25 +1856,13 @@
         <v>-30</v>
       </c>
       <c r="D71" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2736,25 +1876,13 @@
         <v>-30</v>
       </c>
       <c r="D72" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2768,25 +1896,13 @@
         <v>-30</v>
       </c>
       <c r="D73" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2800,25 +1916,13 @@
         <v>-30</v>
       </c>
       <c r="D74" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2832,25 +1936,13 @@
         <v>-30</v>
       </c>
       <c r="D75" t="n">
-        <v>-50.80455759244182</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2864,25 +1956,13 @@
         <v>-30</v>
       </c>
       <c r="D76" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2896,25 +1976,13 @@
         <v>-30</v>
       </c>
       <c r="D77" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2925,28 +1993,16 @@
         <v>4</v>
       </c>
       <c r="C78" t="n">
-        <v>26.28849601745605</v>
+        <v>-30</v>
       </c>
       <c r="D78" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E78" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>8.736236572265625</v>
-      </c>
-      <c r="G78" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H78" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="79">
@@ -2960,25 +2016,13 @@
         <v>-30</v>
       </c>
       <c r="D79" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2992,25 +2036,13 @@
         <v>-30</v>
       </c>
       <c r="D80" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3024,25 +2056,13 @@
         <v>-30</v>
       </c>
       <c r="D81" t="n">
-        <v>-50.88537096237437</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3053,28 +2073,16 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>16.9155158996582</v>
+        <v>-30</v>
       </c>
       <c r="D82" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E82" t="n">
-        <v>4.5234375</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>5.648269653320312</v>
-      </c>
-      <c r="G82" t="n">
-        <v>27776</v>
-      </c>
-      <c r="H82" t="n">
-        <v>27776</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>24</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="83">
@@ -3088,25 +2096,13 @@
         <v>-30</v>
       </c>
       <c r="D83" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3120,25 +2116,13 @@
         <v>-30</v>
       </c>
       <c r="D84" t="n">
-        <v>-46.86296279468672</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3152,25 +2136,13 @@
         <v>-30</v>
       </c>
       <c r="D85" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3184,25 +2156,13 @@
         <v>-30</v>
       </c>
       <c r="D86" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3213,28 +2173,16 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>23.76711082458496</v>
+        <v>-30</v>
       </c>
       <c r="D87" t="n">
-        <v>-50.88537096237437</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E87" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>7.90131139755249</v>
-      </c>
-      <c r="G87" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H87" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="88">
@@ -3248,25 +2196,13 @@
         <v>-30</v>
       </c>
       <c r="D88" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3280,25 +2216,13 @@
         <v>-30</v>
       </c>
       <c r="D89" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3312,25 +2236,13 @@
         <v>-30</v>
       </c>
       <c r="D90" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3344,25 +2256,13 @@
         <v>-30</v>
       </c>
       <c r="D91" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3376,25 +2276,13 @@
         <v>-30</v>
       </c>
       <c r="D92" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3408,25 +2296,13 @@
         <v>-30</v>
       </c>
       <c r="D93" t="n">
-        <v>-50.88537001646054</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3440,25 +2316,13 @@
         <v>-30</v>
       </c>
       <c r="D94" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3469,28 +2333,16 @@
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>12.38986682891846</v>
+        <v>-30</v>
       </c>
       <c r="D95" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E95" t="n">
-        <v>3.322265625</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>4.196725845336914</v>
-      </c>
-      <c r="G95" t="n">
-        <v>20592</v>
-      </c>
-      <c r="H95" t="n">
-        <v>20592</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>20</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="96">
@@ -3504,25 +2356,13 @@
         <v>-30</v>
       </c>
       <c r="D96" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3536,25 +2376,13 @@
         <v>-30</v>
       </c>
       <c r="D97" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3568,25 +2396,13 @@
         <v>-30</v>
       </c>
       <c r="D98" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3600,25 +2416,13 @@
         <v>-30</v>
       </c>
       <c r="D99" t="n">
-        <v>-50.80455805667941</v>
+        <v>-41.30235350489306</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3632,25 +2436,13 @@
         <v>-30</v>
       </c>
       <c r="D100" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3664,25 +2456,13 @@
         <v>-30</v>
       </c>
       <c r="D101" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3696,25 +2476,13 @@
         <v>-30</v>
       </c>
       <c r="D102" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3725,28 +2493,16 @@
         <v>5</v>
       </c>
       <c r="C103" t="n">
-        <v>5.325154304504395</v>
+        <v>-30</v>
       </c>
       <c r="D103" t="n">
-        <v>-71.79234358493973</v>
+        <v>-200</v>
       </c>
       <c r="E103" t="n">
-        <v>1.6953125</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>2.140165090560913</v>
-      </c>
-      <c r="G103" t="n">
-        <v>10576</v>
-      </c>
-      <c r="H103" t="n">
-        <v>10576</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>12</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="104">
@@ -3757,28 +2513,16 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>25.01146697998047</v>
+        <v>-30</v>
       </c>
       <c r="D104" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E104" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>8.313172340393066</v>
-      </c>
-      <c r="G104" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H104" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="105">
@@ -3792,25 +2536,13 @@
         <v>-30</v>
       </c>
       <c r="D105" t="n">
-        <v>-50.80455712820427</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3824,25 +2556,13 @@
         <v>-30</v>
       </c>
       <c r="D106" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3856,25 +2576,13 @@
         <v>-30</v>
       </c>
       <c r="D107" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3888,25 +2596,13 @@
         <v>-30</v>
       </c>
       <c r="D108" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3920,25 +2616,13 @@
         <v>-30</v>
       </c>
       <c r="D109" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3952,25 +2636,13 @@
         <v>-30</v>
       </c>
       <c r="D110" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3984,25 +2656,13 @@
         <v>-30</v>
       </c>
       <c r="D111" t="n">
-        <v>-50.80455712820427</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4016,25 +2676,13 @@
         <v>-30</v>
       </c>
       <c r="D112" t="n">
-        <v>-52.90025899461995</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4048,25 +2696,13 @@
         <v>-30</v>
       </c>
       <c r="D113" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4077,28 +2713,16 @@
         <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>26.28849411010742</v>
+        <v>-30</v>
       </c>
       <c r="D114" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E114" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>8.736236572265625</v>
-      </c>
-      <c r="G114" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H114" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="115">
@@ -4112,25 +2736,13 @@
         <v>-30</v>
       </c>
       <c r="D115" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4144,25 +2756,13 @@
         <v>-30</v>
       </c>
       <c r="D116" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4176,25 +2776,13 @@
         <v>-30</v>
       </c>
       <c r="D117" t="n">
-        <v>-50.88537001646054</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4205,28 +2793,16 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>16.91576957702637</v>
+        <v>-30</v>
       </c>
       <c r="D118" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E118" t="n">
-        <v>4.5234375</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>5.648351669311523</v>
-      </c>
-      <c r="G118" t="n">
-        <v>27776</v>
-      </c>
-      <c r="H118" t="n">
-        <v>27776</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>24</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="119">
@@ -4240,25 +2816,13 @@
         <v>-30</v>
       </c>
       <c r="D119" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4272,25 +2836,13 @@
         <v>-30</v>
       </c>
       <c r="D120" t="n">
-        <v>-46.86296279468672</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4304,25 +2856,13 @@
         <v>-30</v>
       </c>
       <c r="D121" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4336,25 +2876,13 @@
         <v>-30</v>
       </c>
       <c r="D122" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4365,28 +2893,16 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>23.32447052001953</v>
+        <v>-30</v>
       </c>
       <c r="D123" t="n">
-        <v>-50.88537001646054</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E123" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>7.754915714263916</v>
-      </c>
-      <c r="G123" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H123" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="124">
@@ -4400,25 +2916,13 @@
         <v>-30</v>
       </c>
       <c r="D124" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4432,25 +2936,13 @@
         <v>-30</v>
       </c>
       <c r="D125" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4464,25 +2956,13 @@
         <v>-30</v>
       </c>
       <c r="D126" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4496,25 +2976,13 @@
         <v>-30</v>
       </c>
       <c r="D127" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4528,25 +2996,13 @@
         <v>-30</v>
       </c>
       <c r="D128" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4560,25 +3016,13 @@
         <v>-30</v>
       </c>
       <c r="D129" t="n">
-        <v>-50.88537048941744</v>
+        <v>-41.30235350489306</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4592,25 +3036,13 @@
         <v>-30</v>
       </c>
       <c r="D130" t="n">
-        <v>-52.9152011374957</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4621,28 +3053,16 @@
         <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>12.38986682891846</v>
+        <v>-30</v>
       </c>
       <c r="D131" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E131" t="n">
-        <v>3.322265625</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>4.196725845336914</v>
-      </c>
-      <c r="G131" t="n">
-        <v>20592</v>
-      </c>
-      <c r="H131" t="n">
-        <v>20592</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>20</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="132">
@@ -4656,25 +3076,13 @@
         <v>-30</v>
       </c>
       <c r="D132" t="n">
-        <v>-46.86296279468672</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4688,25 +3096,13 @@
         <v>-30</v>
       </c>
       <c r="D133" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -4720,25 +3116,13 @@
         <v>-30</v>
       </c>
       <c r="D134" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4752,25 +3136,13 @@
         <v>-30</v>
       </c>
       <c r="D135" t="n">
-        <v>-50.80455759244182</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4784,25 +3156,13 @@
         <v>-30</v>
       </c>
       <c r="D136" t="n">
-        <v>-52.91519660898223</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4816,25 +3176,13 @@
         <v>-30</v>
       </c>
       <c r="D137" t="n">
-        <v>-61.27943177288763</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4848,25 +3196,13 @@
         <v>-30</v>
       </c>
       <c r="D138" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4877,28 +3213,16 @@
         <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>5.330409049987793</v>
+        <v>-30</v>
       </c>
       <c r="D139" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E139" t="n">
-        <v>1.6953125</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>2.141514778137207</v>
-      </c>
-      <c r="G139" t="n">
-        <v>10576</v>
-      </c>
-      <c r="H139" t="n">
-        <v>10576</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>12</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="140">
@@ -4909,28 +3233,16 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>25.01146697998047</v>
+        <v>-30</v>
       </c>
       <c r="D140" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E140" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>8.313172340393066</v>
-      </c>
-      <c r="G140" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H140" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="141">
@@ -4944,25 +3256,13 @@
         <v>-30</v>
       </c>
       <c r="D141" t="n">
-        <v>-50.80455759244182</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4976,25 +3276,13 @@
         <v>-30</v>
       </c>
       <c r="D142" t="n">
-        <v>-52.9152011374957</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -5008,25 +3296,13 @@
         <v>-30</v>
       </c>
       <c r="D143" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -5040,25 +3316,13 @@
         <v>-30</v>
       </c>
       <c r="D144" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -5072,25 +3336,13 @@
         <v>-30</v>
       </c>
       <c r="D145" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5104,25 +3356,13 @@
         <v>-30</v>
       </c>
       <c r="D146" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5136,25 +3376,13 @@
         <v>-30</v>
       </c>
       <c r="D147" t="n">
-        <v>-50.88537048941744</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -5168,25 +3396,13 @@
         <v>-30</v>
       </c>
       <c r="D148" t="n">
-        <v>-52.90025485774008</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5200,25 +3416,13 @@
         <v>-30</v>
       </c>
       <c r="D149" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5229,28 +3433,16 @@
         <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>26.28849411010742</v>
+        <v>-30</v>
       </c>
       <c r="D150" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E150" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>8.736236572265625</v>
-      </c>
-      <c r="G150" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H150" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="151">
@@ -5264,25 +3456,13 @@
         <v>-30</v>
       </c>
       <c r="D151" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -5296,25 +3476,13 @@
         <v>-30</v>
       </c>
       <c r="D152" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5328,25 +3496,13 @@
         <v>-30</v>
       </c>
       <c r="D153" t="n">
-        <v>-50.88537096237437</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -5357,28 +3513,16 @@
         <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>16.79831504821777</v>
+        <v>-30</v>
       </c>
       <c r="D154" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E154" t="n">
-        <v>4.5234375</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>5.610122680664062</v>
-      </c>
-      <c r="G154" t="n">
-        <v>27776</v>
-      </c>
-      <c r="H154" t="n">
-        <v>27776</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>24</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="155">
@@ -5392,25 +3536,13 @@
         <v>-30</v>
       </c>
       <c r="D155" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -5424,25 +3556,13 @@
         <v>-30</v>
       </c>
       <c r="D156" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -5456,25 +3576,13 @@
         <v>-30</v>
       </c>
       <c r="D157" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5488,25 +3596,13 @@
         <v>-30</v>
       </c>
       <c r="D158" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -5517,28 +3613,16 @@
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>23.32447052001953</v>
+        <v>-30</v>
       </c>
       <c r="D159" t="n">
-        <v>-50.80455712820427</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E159" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>7.754915714263916</v>
-      </c>
-      <c r="G159" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H159" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="160">
@@ -5552,25 +3636,13 @@
         <v>-30</v>
       </c>
       <c r="D160" t="n">
-        <v>-52.90025448166028</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -5584,25 +3656,13 @@
         <v>-30</v>
       </c>
       <c r="D161" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -5616,25 +3676,13 @@
         <v>-30</v>
       </c>
       <c r="D162" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -5648,25 +3696,13 @@
         <v>-30</v>
       </c>
       <c r="D163" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5680,25 +3716,13 @@
         <v>-30</v>
       </c>
       <c r="D164" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -5712,25 +3736,13 @@
         <v>-30</v>
       </c>
       <c r="D165" t="n">
-        <v>-50.88537048941744</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -5744,25 +3756,13 @@
         <v>-30</v>
       </c>
       <c r="D166" t="n">
-        <v>-52.9152011374957</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -5773,28 +3773,16 @@
         <v>3</v>
       </c>
       <c r="C167" t="n">
-        <v>12.4107666015625</v>
+        <v>-30</v>
       </c>
       <c r="D167" t="n">
-        <v>-61.27943144921373</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E167" t="n">
-        <v>3.609375</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>4.203290939331055</v>
-      </c>
-      <c r="G167" t="n">
-        <v>22128</v>
-      </c>
-      <c r="H167" t="n">
-        <v>22128</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>21</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="168">
@@ -5808,25 +3796,13 @@
         <v>-30</v>
       </c>
       <c r="D168" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -5840,25 +3816,13 @@
         <v>-30</v>
       </c>
       <c r="D169" t="n">
-        <v>-71.79234404025158</v>
+        <v>-200</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5872,25 +3836,13 @@
         <v>-30</v>
       </c>
       <c r="D170" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5904,25 +3856,13 @@
         <v>-30</v>
       </c>
       <c r="D171" t="n">
-        <v>-50.80455805667941</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -5936,25 +3876,13 @@
         <v>-30</v>
       </c>
       <c r="D172" t="n">
-        <v>-52.90025937070014</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5968,25 +3896,13 @@
         <v>-30</v>
       </c>
       <c r="D173" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -6000,25 +3916,13 @@
         <v>-30</v>
       </c>
       <c r="D174" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6029,28 +3933,16 @@
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>5.330409526824951</v>
+        <v>-30</v>
       </c>
       <c r="D175" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E175" t="n">
-        <v>1.6953125</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>2.141514778137207</v>
-      </c>
-      <c r="G175" t="n">
-        <v>10576</v>
-      </c>
-      <c r="H175" t="n">
-        <v>10576</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>12</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="176">
@@ -6061,28 +3953,16 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>25.01146697998047</v>
+        <v>-30</v>
       </c>
       <c r="D176" t="n">
-        <v>-47.05321187555028</v>
+        <v>-37.06153111107491</v>
       </c>
       <c r="E176" t="n">
-        <v>5.5546875</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>8.313172340393066</v>
-      </c>
-      <c r="G176" t="n">
-        <v>33960</v>
-      </c>
-      <c r="H176" t="n">
-        <v>33960</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>28</v>
+        <v>0.001441974192857742</v>
       </c>
     </row>
     <row r="177">
@@ -6096,25 +3976,13 @@
         <v>-30</v>
       </c>
       <c r="D177" t="n">
-        <v>-50.88537096237437</v>
+        <v>-41.30235376520248</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -6128,25 +3996,13 @@
         <v>-30</v>
       </c>
       <c r="D178" t="n">
-        <v>-52.90025410558053</v>
+        <v>-45.37207768474426</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -6160,25 +4016,13 @@
         <v>-30</v>
       </c>
       <c r="D179" t="n">
-        <v>-61.27943112553982</v>
+        <v>-52.86888919925352</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -6192,25 +4036,13 @@
         <v>-30</v>
       </c>
       <c r="D180" t="n">
-        <v>-46.86296242004963</v>
+        <v>-36.88935094332142</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -6224,25 +4056,13 @@
         <v>-30</v>
       </c>
       <c r="D181" t="n">
-        <v>-71.79234677212358</v>
+        <v>-200</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
         <v>0.001441974192857742</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
